--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>A - Register Facility [information only]</t>
+    <t>NG-Imm-A RegisterFacility[information only]</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NG-Imm-A RegisterFacility[information only]</t>
+    <t>NG-Imm-A RegisterFacility</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -305,6 +305,10 @@
     <t>register-facility-model.facilityStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>The Status of the health facility.</t>
   </si>
   <si>
@@ -650,6 +654,18 @@
   </si>
   <si>
     <t>The state where the primary contact is.</t>
+  </si>
+  <si>
+    <t>register-facility-model.longitude</t>
+  </si>
+  <si>
+    <t>The Longitude of the health facility</t>
+  </si>
+  <si>
+    <t>register-facility-model.latitude</t>
+  </si>
+  <si>
+    <t>The Latitude of the health facility</t>
   </si>
 </sst>
 </file>
@@ -962,7 +978,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1746,13 +1762,13 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1820,10 +1836,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1849,10 +1865,10 @@
         <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1903,7 +1919,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -1920,10 +1936,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1949,10 +1965,10 @@
         <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2003,7 +2019,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2020,10 +2036,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2046,13 +2062,13 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2103,7 +2119,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2115,15 +2131,15 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2149,10 +2165,10 @@
         <v>81</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2203,7 +2219,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2220,14 +2236,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2246,16 +2262,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2293,19 +2309,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2317,19 +2333,19 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2342,25 +2358,25 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2409,7 +2425,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2421,15 +2437,15 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2455,10 +2471,10 @@
         <v>81</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2509,7 +2525,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2526,10 +2542,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2555,10 +2571,10 @@
         <v>81</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2609,7 +2625,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2626,10 +2642,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2655,10 +2671,10 @@
         <v>81</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2709,7 +2725,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2726,10 +2742,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2755,10 +2771,10 @@
         <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2794,7 +2810,7 @@
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>74</v>
@@ -2809,7 +2825,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -2826,10 +2842,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2855,10 +2871,10 @@
         <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2894,7 +2910,7 @@
         <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>74</v>
@@ -2909,7 +2925,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -2926,10 +2942,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2955,10 +2971,10 @@
         <v>91</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2994,7 +3010,7 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>74</v>
@@ -3009,7 +3025,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3026,10 +3042,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3052,13 +3068,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3109,7 +3125,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3121,15 +3137,15 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3155,10 +3171,10 @@
         <v>81</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3209,7 +3225,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3226,14 +3242,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3252,16 +3268,16 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3299,19 +3315,19 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3323,19 +3339,19 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3348,25 +3364,25 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -3415,7 +3431,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3427,15 +3443,15 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3458,13 +3474,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3515,7 +3531,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -3527,15 +3543,15 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3561,10 +3577,10 @@
         <v>81</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3615,7 +3631,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -3632,14 +3648,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -3658,16 +3674,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3705,19 +3721,19 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -3729,19 +3745,19 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -3754,25 +3770,25 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -3821,7 +3837,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -3833,15 +3849,15 @@
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3867,10 +3883,10 @@
         <v>81</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3921,7 +3937,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -3938,10 +3954,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3967,10 +3983,10 @@
         <v>81</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4021,7 +4037,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -4038,10 +4054,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4064,13 +4080,13 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4121,7 +4137,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4133,15 +4149,15 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4167,10 +4183,10 @@
         <v>81</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4221,7 +4237,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4238,14 +4254,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4264,16 +4280,16 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4311,19 +4327,19 @@
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -4335,15 +4351,15 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4363,16 +4379,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4399,13 +4415,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -4423,7 +4439,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -4432,18 +4448,18 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4463,22 +4479,22 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -4527,7 +4543,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -4539,15 +4555,15 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4564,25 +4580,25 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -4607,13 +4623,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -4631,7 +4647,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -4643,15 +4659,15 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4671,19 +4687,19 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4733,7 +4749,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -4745,15 +4761,15 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4773,16 +4789,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4833,7 +4849,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -4845,15 +4861,15 @@
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4879,10 +4895,10 @@
         <v>81</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4933,7 +4949,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -4950,10 +4966,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4979,10 +4995,10 @@
         <v>81</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5033,7 +5049,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5050,10 +5066,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5079,10 +5095,10 @@
         <v>81</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5133,7 +5149,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5150,10 +5166,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5179,10 +5195,10 @@
         <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5218,7 +5234,7 @@
         <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>74</v>
@@ -5233,7 +5249,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -5250,10 +5266,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5279,10 +5295,10 @@
         <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5318,7 +5334,7 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>74</v>
@@ -5333,7 +5349,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -5350,10 +5366,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5379,10 +5395,10 @@
         <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5418,7 +5434,7 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>74</v>
@@ -5433,7 +5449,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -5445,6 +5461,206 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-register-facility-model.xlsx
+++ b/StructureDefinition-register-facility-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
